--- a/biology/Zoologie/Diplodocinae/Diplodocinae.xlsx
+++ b/biology/Zoologie/Diplodocinae/Diplodocinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diplodocinae (diplodocinés en français) forment une sous-famille éteinte de dinosaures sauropodes de très grande taille ayant vécu au cours du Jurassique supérieur, en Amérique du Nord, en Europe et en Afrique et, au Crétacé inférieur, en Amérique du Sud.
 </t>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Position des diplodocinés
-Cladogramme simplifié de la position des diplodocinés :
-Cladogramme établi en 2017 par Tschopp et Mateus[1], modifiant légèrement celui de Tschopp et ses collègues de 2015[2], montrant la position des différents taxons au sein de la sous-famille des diplodocinés :
+          <t>Position des diplodocinés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme simplifié de la position des diplodocinés :
+Cladogramme établi en 2017 par Tschopp et Mateus, modifiant légèrement celui de Tschopp et ses collègues de 2015, montrant la position des différents taxons au sein de la sous-famille des diplodocinés :
 </t>
         </is>
       </c>
@@ -544,7 +561,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>† Barosaurus
 † Diplodocus
